--- a/biology/Botanique/Mondia_whitei/Mondia_whitei.xlsx
+++ b/biology/Botanique/Mondia_whitei/Mondia_whitei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mondia whitei est une espèce de plante grimpante, herbacée, ligneuse et vivace appartenant à la famille des Apocynaceae. 
-Comme la plupart des membres de cette famille, il présente un latex laiteux. Deux espèces de Mondia sont reconnues, l'autre étant Mondia ecornuta[1]. 
+Comme la plupart des membres de cette famille, il présente un latex laiteux. Deux espèces de Mondia sont reconnues, l'autre étant Mondia ecornuta. 
 Connu dans certaines localités sous le nom de « gondolosi », au Kenya, il est connu sous le nom de « mukombero », et le porte-greffe est souvent récolté à des fins médicinales.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mondia vient du mot zoulou désignant la plante: « umondi ». L'épithète d'espèce commémore AS White, un fermier sud-africain, qui a envoyé des spécimens à Kew à John Croumbie Brown, botaniste colonial au Cap, qui les a envoyés à Joseph Dalton Hooker, qui décrivit l'espèce.
 </t>
@@ -544,10 +558,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">M. whitei croît à des altitudes de 1000 à 1500 m dans les forêts humides, et même dans les prairies marécageuses, à travers l'Afrique subsaharienne; il est signalé en Guinée, au Bénin, au Nigeria, au Cameroun, au Soudan, en Ouganda, au Kenya, en Tanzanie, au Zimbabwe, au Malawi, au Mozambique, en Afrique du Sud, au Swaziland et en Angola. 
-Au Kenya, ses racines sont fortement ramassées, ce qui tue souvent la plante[2]. Certaines initiatives propagent l'espèce pour répondre à la demande commerciale et tentent de rétablir l'espèce dans son milieu naturel[3].
+Au Kenya, ses racines sont fortement ramassées, ce qui tue souvent la plante. Certaines initiatives propagent l'espèce pour répondre à la demande commerciale et tentent de rétablir l'espèce dans son milieu naturel.
 Les tiges plus anciennes devenant ligneuses, il pousse à partir d'un porte-greffe tubéreux qui a un goût de gingembre (il est parfois appelé « gingembre blanc ») ou de réglisse et un arôme rappelant la vanille. 
 Les feuilles opposées sont grandes (100–300 x 50–150 mm) avec une base cordée et 30–55 pétioles de mm de long qui, avec les nervures de la face inférieure, sont souvent rouge-violet. 
 Les fausses stipules sont grandes et fimbriacées. L'inflorescence est axillaire et ramifiée; la floraison est de courte durée: 3–4 jours. 
